--- a/cifar-notes.xlsx
+++ b/cifar-notes.xlsx
@@ -12,12 +12,11 @@
     <sheet name="Decay Rates" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="159">
   <si>
     <t>Model</t>
   </si>
@@ -434,6 +433,66 @@
   </si>
   <si>
     <t>7.20.2.13v</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>7.20.2.13w</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>7.20.2.13x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>7.20.2.13y</t>
+  </si>
+  <si>
+    <t>7.20.2.14y</t>
+  </si>
+  <si>
+    <t>Reduced lambdaC to 0</t>
+  </si>
+  <si>
+    <t>Replaced initial 5x5 convs with multiple 3x3s</t>
+  </si>
+  <si>
+    <t>7.20.3.01u</t>
+  </si>
+  <si>
+    <t>7.20.4.01u</t>
+  </si>
+  <si>
+    <t>Put pool1 after 3 conv 1s and made layer 2 have 3 convs</t>
+  </si>
+  <si>
+    <t>7.20.4.01w</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>7.20.4.01z</t>
+  </si>
+  <si>
+    <t>7.20.4.01j</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>7.20.4.01a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>7.20.4.01b</t>
   </si>
 </sst>
 </file>
@@ -446,7 +505,7 @@
     <numFmt numFmtId="166" formatCode="0.000000"/>
     <numFmt numFmtId="167" formatCode="0.000"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -521,14 +580,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <strike/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -569,7 +620,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -617,13 +668,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -636,17 +686,15 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -948,11 +996,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA113"/>
+  <dimension ref="A1:AA112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A53" sqref="A53"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P64" sqref="P64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1499,7 +1547,7 @@
         <v>0.88690000000000002</v>
       </c>
       <c r="Q8" s="19">
-        <f>O8-G8</f>
+        <f t="shared" ref="Q8:Q15" si="0">O8-G8</f>
         <v>6.3299999999999912E-2</v>
       </c>
       <c r="S8">
@@ -1569,7 +1617,7 @@
         <v>0.89065000000000005</v>
       </c>
       <c r="Q9" s="19">
-        <f>O9-G9</f>
+        <f t="shared" si="0"/>
         <v>9.6899999999999986E-2</v>
       </c>
       <c r="S9">
@@ -1636,7 +1684,7 @@
         <v>0.88390000000000002</v>
       </c>
       <c r="Q10" s="19">
-        <f>O10-G10</f>
+        <f t="shared" si="0"/>
         <v>7.9500000000000015E-2</v>
       </c>
       <c r="S10">
@@ -1707,7 +1755,7 @@
         <v>0.90029999999999999</v>
       </c>
       <c r="Q11" s="19">
-        <f>O11-G11</f>
+        <f t="shared" si="0"/>
         <v>8.8600000000000012E-2</v>
       </c>
       <c r="R11" s="1"/>
@@ -1780,7 +1828,7 @@
         <v>0.89580000000000004</v>
       </c>
       <c r="Q12" s="19">
-        <f>O12-G12</f>
+        <f t="shared" si="0"/>
         <v>8.9799999999999991E-2</v>
       </c>
       <c r="R12" s="1"/>
@@ -1853,7 +1901,7 @@
         <v>0.90269999999999995</v>
       </c>
       <c r="Q13" s="19">
-        <f>O13-G13</f>
+        <f t="shared" si="0"/>
         <v>9.2600000000000016E-2</v>
       </c>
       <c r="R13" s="1"/>
@@ -1924,7 +1972,7 @@
         <v>0.89529999999999998</v>
       </c>
       <c r="Q14" s="19">
-        <f>O14-G14</f>
+        <f t="shared" si="0"/>
         <v>8.9099999999999957E-2</v>
       </c>
       <c r="R14" s="4"/>
@@ -1993,7 +2041,7 @@
         <v>0.90290000000000004</v>
       </c>
       <c r="Q15" s="6">
-        <f>O15-G15</f>
+        <f t="shared" si="0"/>
         <v>8.550000000000002E-2</v>
       </c>
       <c r="S15">
@@ -2684,13 +2732,13 @@
       <c r="N25" s="4">
         <v>150</v>
       </c>
-      <c r="O25" s="44">
+      <c r="O25" s="43">
         <v>0.98229999999999995</v>
       </c>
-      <c r="P25" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q25" s="44" t="s">
+      <c r="P25" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q25" s="43" t="s">
         <v>20</v>
       </c>
       <c r="S25">
@@ -2754,13 +2802,13 @@
       <c r="N26" s="4">
         <v>200</v>
       </c>
-      <c r="O26" s="44">
+      <c r="O26" s="43">
         <v>0.99</v>
       </c>
-      <c r="P26" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q26" s="44" t="s">
+      <c r="P26" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q26" s="43" t="s">
         <v>20</v>
       </c>
       <c r="S26">
@@ -2849,10 +2897,10 @@
       <c r="O28" s="17">
         <v>0.95899999999999996</v>
       </c>
-      <c r="P28" s="47">
+      <c r="P28" s="46">
         <v>0.90290000000000004</v>
       </c>
-      <c r="Q28" s="43">
+      <c r="Q28" s="42">
         <f>O28-G28</f>
         <v>5.7199999999999918E-2</v>
       </c>
@@ -2920,10 +2968,10 @@
       <c r="O29" s="17">
         <v>0.97699999999999998</v>
       </c>
-      <c r="P29" s="47">
+      <c r="P29" s="46">
         <v>0.91190000000000004</v>
       </c>
-      <c r="Q29" s="42">
+      <c r="Q29" s="41">
         <f>O29-G29</f>
         <v>6.6799999999999971E-2</v>
       </c>
@@ -2988,13 +3036,13 @@
       <c r="N30" s="4">
         <v>50</v>
       </c>
-      <c r="O30" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="P30" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q30" s="44" t="s">
+      <c r="O30" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="P30" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q30" s="43" t="s">
         <v>20</v>
       </c>
       <c r="S30">
@@ -3058,13 +3106,13 @@
       <c r="N31" s="4">
         <v>100</v>
       </c>
-      <c r="O31" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="P31" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q31" s="44" t="s">
+      <c r="O31" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="P31" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q31" s="43" t="s">
         <v>20</v>
       </c>
       <c r="S31">
@@ -3128,13 +3176,13 @@
       <c r="N32" s="4">
         <v>80</v>
       </c>
-      <c r="O32" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="P32" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q32" s="44" t="s">
+      <c r="O32" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="P32" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q32" s="43" t="s">
         <v>20</v>
       </c>
       <c r="S32">
@@ -3198,13 +3246,13 @@
       <c r="N33" s="4">
         <v>80</v>
       </c>
-      <c r="O33" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="P33" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q33" s="44" t="s">
+      <c r="O33" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="P33" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q33" s="43" t="s">
         <v>20</v>
       </c>
       <c r="S33">
@@ -3271,10 +3319,10 @@
       <c r="O34" s="18">
         <v>0.99199999999999999</v>
       </c>
-      <c r="P34" s="47">
+      <c r="P34" s="46">
         <v>0.91269999999999996</v>
       </c>
-      <c r="Q34" s="46">
+      <c r="Q34" s="45">
         <f>O34-I34</f>
         <v>7.5099999999999945E-2</v>
       </c>
@@ -3342,10 +3390,10 @@
       <c r="O35" s="18">
         <v>0.99099999999999999</v>
       </c>
-      <c r="P35" s="47">
+      <c r="P35" s="46">
         <v>0.91539999999999999</v>
       </c>
-      <c r="Q35" s="46">
+      <c r="Q35" s="45">
         <f>O35-I35</f>
         <v>7.2599999999999998E-2</v>
       </c>
@@ -3414,10 +3462,10 @@
       <c r="O36" s="35">
         <v>0.94840000000000002</v>
       </c>
-      <c r="P36" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q36" s="44" t="s">
+      <c r="P36" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q36" s="43" t="s">
         <v>20</v>
       </c>
       <c r="R36" s="33"/>
@@ -3487,7 +3535,7 @@
       <c r="O37" s="35">
         <v>0.98170000000000002</v>
       </c>
-      <c r="P37" s="45">
+      <c r="P37" s="44">
         <v>0.90620000000000001</v>
       </c>
       <c r="Q37" s="35">
@@ -3543,10 +3591,10 @@
       <c r="G38" s="24">
         <v>0.91159999999999997</v>
       </c>
-      <c r="H38" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="I38" s="38" t="s">
+      <c r="H38" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="I38" s="37" t="s">
         <v>20</v>
       </c>
       <c r="J38" s="24"/>
@@ -3674,7 +3722,7 @@
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="A40" s="40" t="s">
+      <c r="A40" s="39" t="s">
         <v>107</v>
       </c>
       <c r="B40" t="s">
@@ -3692,17 +3740,17 @@
       <c r="F40" s="15">
         <v>0.90739999999999998</v>
       </c>
-      <c r="G40" s="20">
+      <c r="G40" s="15">
         <v>0.9173</v>
       </c>
-      <c r="H40" s="16">
+      <c r="H40" s="15">
         <v>0.9194</v>
       </c>
-      <c r="I40" s="20">
+      <c r="I40" s="15">
         <v>0.91890000000000005</v>
       </c>
       <c r="J40" s="14"/>
-      <c r="K40" s="14">
+      <c r="K40" s="20">
         <v>0.92730000000000001</v>
       </c>
       <c r="L40" s="22">
@@ -3717,7 +3765,7 @@
       <c r="P40" s="52">
         <v>0.91659999999999997</v>
       </c>
-      <c r="Q40" s="46">
+      <c r="Q40" s="45">
         <f>O40-I40</f>
         <v>6.8099999999999938E-2</v>
       </c>
@@ -3753,10 +3801,10 @@
       <c r="B41" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="C41" s="25">
+      <c r="C41" s="26">
         <v>0.88260000000000005</v>
       </c>
-      <c r="D41" s="37">
+      <c r="D41" s="25">
         <v>0.9</v>
       </c>
       <c r="E41" s="28" t="s">
@@ -3785,13 +3833,13 @@
       <c r="N41" s="33">
         <v>155</v>
       </c>
-      <c r="O41" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="P41" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q41" s="44" t="s">
+      <c r="O41" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="P41" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q41" s="43" t="s">
         <v>20</v>
       </c>
       <c r="R41" s="33"/>
@@ -3834,7 +3882,7 @@
       <c r="D42" s="13">
         <v>0.88419999999999999</v>
       </c>
-      <c r="E42" s="41">
+      <c r="E42" s="40">
         <v>0.90149999999999997</v>
       </c>
       <c r="F42" s="13">
@@ -3846,7 +3894,7 @@
       <c r="H42" s="13">
         <v>0.91679999999999995</v>
       </c>
-      <c r="I42" s="14">
+      <c r="I42" s="15">
         <v>0.92090000000000005</v>
       </c>
       <c r="J42" s="13"/>
@@ -3859,7 +3907,7 @@
       </c>
       <c r="M42" s="4"/>
       <c r="N42" s="4">
-        <v>229</v>
+        <v>350</v>
       </c>
       <c r="O42" s="17">
         <v>0.96099999999999997</v>
@@ -3867,7 +3915,7 @@
       <c r="P42" s="17">
         <v>0.91090000000000004</v>
       </c>
-      <c r="Q42" s="46">
+      <c r="Q42" s="45">
         <f>O42-I42</f>
         <v>4.0099999999999913E-2</v>
       </c>
@@ -3897,7 +3945,7 @@
       </c>
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="A43" s="49" t="s">
+      <c r="A43" s="47" t="s">
         <v>94</v>
       </c>
       <c r="B43" s="33" t="s">
@@ -3909,19 +3957,19 @@
       <c r="D43" s="24">
         <v>0.88939999999999997</v>
       </c>
-      <c r="E43" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="F43" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="G43" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="H43" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="I43" s="44" t="s">
+      <c r="E43" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="F43" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="G43" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="H43" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="I43" s="43" t="s">
         <v>20</v>
       </c>
       <c r="J43" s="24"/>
@@ -3935,13 +3983,13 @@
       <c r="N43" s="33">
         <v>100</v>
       </c>
-      <c r="O43" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="P43" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q43" s="44" t="s">
+      <c r="O43" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="P43" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q43" s="43" t="s">
         <v>20</v>
       </c>
       <c r="R43" s="33"/>
@@ -3972,7 +4020,7 @@
       </c>
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="A44" s="49" t="s">
+      <c r="A44" s="47" t="s">
         <v>114</v>
       </c>
       <c r="B44" s="33" t="s">
@@ -3996,7 +4044,7 @@
       <c r="H44" s="24">
         <v>0.91520000000000001</v>
       </c>
-      <c r="I44" s="44" t="s">
+      <c r="I44" s="43" t="s">
         <v>20</v>
       </c>
       <c r="J44" s="24"/>
@@ -4013,10 +4061,10 @@
       <c r="O44" s="35">
         <v>0.97670000000000001</v>
       </c>
-      <c r="P44" s="50">
+      <c r="P44" s="48">
         <v>0.9153</v>
       </c>
-      <c r="Q44" s="45">
+      <c r="Q44" s="44">
         <f>O44-F44</f>
         <v>6.8500000000000005E-2</v>
       </c>
@@ -4069,21 +4117,21 @@
       <c r="G45" s="13">
         <v>0.90859999999999996</v>
       </c>
-      <c r="H45" s="14">
+      <c r="H45" s="20">
         <v>0.91979999999999995</v>
       </c>
       <c r="I45" s="13">
         <v>0.91839999999999999</v>
       </c>
       <c r="J45" s="13"/>
-      <c r="K45" s="16">
+      <c r="K45" s="15">
         <v>0.9264</v>
       </c>
       <c r="L45" s="21">
         <v>305</v>
       </c>
       <c r="N45" s="4">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="O45" s="18">
         <v>0.97860000000000003</v>
@@ -4091,7 +4139,7 @@
       <c r="P45" s="18">
         <v>0.91369999999999996</v>
       </c>
-      <c r="Q45" s="46">
+      <c r="Q45" s="45">
         <f>O45-I45</f>
         <v>6.0200000000000031E-2</v>
       </c>
@@ -4121,7 +4169,7 @@
       </c>
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="A46" s="39" t="s">
+      <c r="A46" s="2" t="s">
         <v>120</v>
       </c>
       <c r="B46" s="4" t="s">
@@ -4145,7 +4193,7 @@
       <c r="H46" s="15">
         <v>0.91800000000000004</v>
       </c>
-      <c r="I46" s="16">
+      <c r="I46" s="15">
         <v>0.91949999999999998</v>
       </c>
       <c r="J46" s="11"/>
@@ -4157,15 +4205,15 @@
       </c>
       <c r="M46" s="4"/>
       <c r="N46" s="4">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="O46" s="17">
         <v>0.97960000000000003</v>
       </c>
-      <c r="P46" s="51">
+      <c r="P46" s="41">
         <v>0.92179999999999995</v>
       </c>
-      <c r="Q46" s="46">
+      <c r="Q46" s="45">
         <f>O46-I46</f>
         <v>6.0100000000000042E-2</v>
       </c>
@@ -4203,13 +4251,13 @@
       <c r="B47" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C47" s="44" t="s">
+      <c r="C47" s="43" t="s">
         <v>20</v>
       </c>
       <c r="D47" s="13">
         <v>0.89180000000000004</v>
       </c>
-      <c r="E47" s="44" t="s">
+      <c r="E47" s="43" t="s">
         <v>20</v>
       </c>
       <c r="F47" s="15">
@@ -4218,29 +4266,29 @@
       <c r="G47" s="15">
         <v>0.91190000000000004</v>
       </c>
-      <c r="H47" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="I47" s="16">
+      <c r="H47" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="I47" s="15">
         <v>0.9194</v>
       </c>
       <c r="J47" s="13"/>
-      <c r="K47" s="20">
+      <c r="K47" s="15">
         <v>0.92459999999999998</v>
       </c>
       <c r="L47">
         <v>358</v>
       </c>
       <c r="N47" s="4">
-        <v>350</v>
+        <v>375</v>
       </c>
       <c r="O47" s="18">
         <v>0.97809999999999997</v>
       </c>
-      <c r="P47" s="47">
+      <c r="P47" s="46">
         <v>0.91769999999999996</v>
       </c>
-      <c r="Q47" s="46">
+      <c r="Q47" s="45">
         <f>O47-I47</f>
         <v>5.8699999999999974E-2</v>
       </c>
@@ -4254,7 +4302,7 @@
         <v>5.0000000000000002E-5</v>
       </c>
       <c r="V47" s="18">
-        <v>0.01</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="W47" s="4">
         <v>0.1</v>
@@ -4282,16 +4330,16 @@
       <c r="D48" s="15">
         <v>0.89790000000000003</v>
       </c>
-      <c r="E48" s="16">
+      <c r="E48" s="15">
         <v>0.91059999999999997</v>
       </c>
-      <c r="F48" s="14">
+      <c r="F48" s="16">
         <v>0.91710000000000003</v>
       </c>
       <c r="G48" s="15">
         <v>0.91539999999999999</v>
       </c>
-      <c r="H48" s="20">
+      <c r="H48" s="15">
         <v>0.91910000000000003</v>
       </c>
       <c r="I48" s="13"/>
@@ -4311,7 +4359,7 @@
       <c r="P48" s="18">
         <v>0.91310000000000002</v>
       </c>
-      <c r="Q48" s="46">
+      <c r="Q48" s="45">
         <f>O48-I47</f>
         <v>5.9699999999999975E-2</v>
       </c>
@@ -4325,7 +4373,7 @@
         <v>5.0000000000000002E-5</v>
       </c>
       <c r="V48" s="18">
-        <v>0.01</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="W48" s="4">
         <v>0.1</v>
@@ -4359,32 +4407,32 @@
       <c r="F49" s="15">
         <v>0.9123</v>
       </c>
-      <c r="G49" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="H49" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="I49" s="44" t="s">
+      <c r="G49" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="H49" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="I49" s="43" t="s">
         <v>20</v>
       </c>
       <c r="J49" s="13"/>
-      <c r="K49" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="L49" s="44" t="s">
+      <c r="K49" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="L49" s="43" t="s">
         <v>20</v>
       </c>
       <c r="N49" s="4">
         <v>200</v>
       </c>
-      <c r="O49" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="P49" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q49" s="44" t="s">
+      <c r="O49" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="P49" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q49" s="43" t="s">
         <v>20</v>
       </c>
       <c r="S49" s="4">
@@ -4397,7 +4445,7 @@
         <v>5.0000000000000002E-5</v>
       </c>
       <c r="V49" s="18">
-        <v>0.01</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="W49" s="4">
         <v>0.1</v>
@@ -4425,38 +4473,38 @@
       <c r="D50" s="13">
         <v>0.89149999999999996</v>
       </c>
-      <c r="E50" s="13">
+      <c r="E50" s="15">
         <v>0.90339999999999998</v>
       </c>
       <c r="F50" s="13">
         <v>0.90939999999999999</v>
       </c>
-      <c r="G50" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="H50" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="I50" s="44" t="s">
+      <c r="G50" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="H50" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="I50" s="43" t="s">
         <v>20</v>
       </c>
       <c r="J50" s="13"/>
-      <c r="K50" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="L50" s="44" t="s">
+      <c r="K50" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="L50" s="43" t="s">
         <v>20</v>
       </c>
       <c r="N50" s="4">
         <v>200</v>
       </c>
-      <c r="O50" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="P50" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q50" s="44" t="s">
+      <c r="O50" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="P50" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q50" s="43" t="s">
         <v>20</v>
       </c>
       <c r="S50" s="4">
@@ -4469,7 +4517,7 @@
         <v>5.0000000000000002E-5</v>
       </c>
       <c r="V50" s="18">
-        <v>0.01</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="W50" s="4">
         <v>0.1</v>
@@ -4497,10 +4545,10 @@
       <c r="D51" s="15">
         <v>0.89600000000000002</v>
       </c>
-      <c r="E51" s="16">
+      <c r="E51" s="15">
         <v>0.9103</v>
       </c>
-      <c r="F51" s="16">
+      <c r="F51" s="15">
         <v>0.91500000000000004</v>
       </c>
       <c r="G51" s="16">
@@ -4520,7 +4568,7 @@
         <v>354</v>
       </c>
       <c r="N51" s="4">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="O51" s="18">
         <v>0.98660000000000003</v>
@@ -4528,7 +4576,7 @@
       <c r="P51" s="18">
         <v>0.91510000000000002</v>
       </c>
-      <c r="Q51" s="46">
+      <c r="Q51" s="45">
         <f>O51-I51</f>
         <v>6.700000000000006E-2</v>
       </c>
@@ -4542,7 +4590,7 @@
         <v>5.0000000000000002E-5</v>
       </c>
       <c r="V51" s="18">
-        <v>0.01</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="W51" s="4">
         <v>0.1</v>
@@ -4564,10 +4612,10 @@
       <c r="B52" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C52" s="16">
+      <c r="C52" s="15">
         <v>0.88180000000000003</v>
       </c>
-      <c r="D52" s="20">
+      <c r="D52" s="15">
         <v>0.8962</v>
       </c>
       <c r="E52" s="15">
@@ -4593,15 +4641,15 @@
         <v>368</v>
       </c>
       <c r="N52" s="4">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="O52" s="18">
         <v>0.9859</v>
       </c>
-      <c r="P52" s="42">
+      <c r="P52" s="46">
         <v>0.92059999999999997</v>
       </c>
-      <c r="Q52" s="46">
+      <c r="Q52" s="45">
         <f>O52-I52</f>
         <v>6.8200000000000038E-2</v>
       </c>
@@ -4615,7 +4663,7 @@
         <v>5.0000000000000002E-5</v>
       </c>
       <c r="V52" s="18">
-        <v>0.01</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="W52" s="4">
         <v>0.1</v>
@@ -4637,25 +4685,25 @@
       <c r="B53" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C53" s="56">
+      <c r="C53" s="50">
         <v>0.88049999999999995</v>
       </c>
-      <c r="D53" s="16">
-        <v>0.8992</v>
-      </c>
-      <c r="E53" s="53">
-        <v>0.90649999999999997</v>
-      </c>
-      <c r="F53" s="53">
-        <v>0.9133</v>
-      </c>
-      <c r="G53" s="54">
-        <v>0.91969999999999996</v>
-      </c>
-      <c r="H53" s="55">
+      <c r="D53" s="15">
+        <v>0.89480000000000004</v>
+      </c>
+      <c r="E53" s="50">
+        <v>0.90810000000000002</v>
+      </c>
+      <c r="F53" s="50">
+        <v>0.91400000000000003</v>
+      </c>
+      <c r="G53" s="51">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="H53" s="49">
         <v>0.91820000000000002</v>
       </c>
-      <c r="I53" s="55">
+      <c r="I53" s="49">
         <v>0.92069999999999996</v>
       </c>
       <c r="J53" s="13"/>
@@ -4666,15 +4714,15 @@
         <v>350</v>
       </c>
       <c r="N53" s="4">
-        <v>225</v>
+        <v>350</v>
       </c>
       <c r="O53" s="18">
         <v>0.97289999999999999</v>
       </c>
-      <c r="P53" s="48">
+      <c r="P53" s="46">
         <v>0.91890000000000005</v>
       </c>
-      <c r="Q53" s="46">
+      <c r="Q53" s="45">
         <f>O53-I53</f>
         <v>5.2200000000000024E-2</v>
       </c>
@@ -4688,7 +4736,7 @@
         <v>5.0000000000000002E-5</v>
       </c>
       <c r="V53" s="18">
-        <v>0.01</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="W53" s="4">
         <v>0.1</v>
@@ -4704,160 +4752,801 @@
       </c>
     </row>
     <row r="54" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="C54" s="13"/>
-      <c r="D54" s="13"/>
-      <c r="E54" s="13"/>
-      <c r="F54" s="13"/>
-      <c r="G54" s="13"/>
-      <c r="H54" s="13"/>
-      <c r="I54" s="13"/>
+      <c r="A54" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C54" s="15">
+        <v>0.88300000000000001</v>
+      </c>
+      <c r="D54" s="15">
+        <v>0.89239999999999997</v>
+      </c>
+      <c r="E54" s="13">
+        <v>0.89910000000000001</v>
+      </c>
+      <c r="F54" s="13">
+        <v>0.90490000000000004</v>
+      </c>
+      <c r="G54" s="13">
+        <v>0.90939999999999999</v>
+      </c>
+      <c r="H54" s="13">
+        <v>0.91039999999999999</v>
+      </c>
+      <c r="I54" s="13">
+        <v>0.91479999999999995</v>
+      </c>
       <c r="J54" s="13"/>
-      <c r="K54" s="13"/>
-      <c r="O54" s="18"/>
-      <c r="P54" s="18"/>
-      <c r="Q54" s="18"/>
-      <c r="U54" s="18"/>
-      <c r="V54" s="18"/>
+      <c r="K54" s="13">
+        <v>0.92079999999999995</v>
+      </c>
+      <c r="L54">
+        <v>325</v>
+      </c>
+      <c r="N54" s="4">
+        <v>350</v>
+      </c>
+      <c r="O54" s="18">
+        <v>0.98309999999999997</v>
+      </c>
+      <c r="P54" s="46">
+        <v>0.92059999999999997</v>
+      </c>
+      <c r="Q54" s="45">
+        <f>O54-I54</f>
+        <v>6.8300000000000027E-2</v>
+      </c>
+      <c r="S54">
+        <v>64</v>
+      </c>
+      <c r="T54" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="U54" s="17">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="V54" s="18">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="W54" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="X54" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="Y54" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="AA54" s="4" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="55" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="C55" s="13"/>
-      <c r="D55" s="13"/>
-      <c r="E55" s="13"/>
-      <c r="F55" s="13"/>
-      <c r="G55" s="13"/>
-      <c r="H55" s="13"/>
-      <c r="I55" s="13"/>
+      <c r="A55" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C55" s="13">
+        <v>0.87370000000000003</v>
+      </c>
+      <c r="D55" s="15">
+        <v>0.8931</v>
+      </c>
+      <c r="E55" s="15">
+        <v>0.9032</v>
+      </c>
+      <c r="F55" s="13">
+        <v>0.91020000000000001</v>
+      </c>
+      <c r="G55" s="15">
+        <v>0.91169999999999995</v>
+      </c>
+      <c r="H55" s="13">
+        <v>0.91180000000000005</v>
+      </c>
+      <c r="I55" s="13">
+        <v>0.91490000000000005</v>
+      </c>
       <c r="J55" s="13"/>
-      <c r="K55" s="13"/>
-      <c r="O55" s="18"/>
-      <c r="P55" s="18"/>
-      <c r="Q55" s="18"/>
-      <c r="U55" s="18"/>
-      <c r="V55" s="18"/>
+      <c r="K55" s="13">
+        <v>0.92020000000000002</v>
+      </c>
+      <c r="L55">
+        <v>304</v>
+      </c>
+      <c r="N55" s="4">
+        <v>350</v>
+      </c>
+      <c r="O55" s="18">
+        <v>0.98609999999999998</v>
+      </c>
+      <c r="P55" s="18">
+        <v>0.91149999999999998</v>
+      </c>
+      <c r="Q55" s="18">
+        <f>O55-I55</f>
+        <v>7.119999999999993E-2</v>
+      </c>
+      <c r="S55">
+        <v>64</v>
+      </c>
+      <c r="T55" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="U55" s="17">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="V55" s="18">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="W55" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="X55" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="Y55" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="AA55" s="4" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="56" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="C56" s="13"/>
-      <c r="D56" s="13"/>
-      <c r="E56" s="13"/>
-      <c r="F56" s="13"/>
-      <c r="G56" s="13"/>
-      <c r="H56" s="13"/>
-      <c r="I56" s="13"/>
+      <c r="A56" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C56" s="13">
+        <v>0.87880000000000003</v>
+      </c>
+      <c r="D56" s="15">
+        <v>0.89739999999999998</v>
+      </c>
+      <c r="E56" s="13">
+        <v>0.90880000000000005</v>
+      </c>
+      <c r="F56" s="13">
+        <v>0.9133</v>
+      </c>
+      <c r="G56" s="13">
+        <v>0.9133</v>
+      </c>
+      <c r="H56" s="16">
+        <v>0.92030000000000001</v>
+      </c>
+      <c r="I56" s="15">
+        <v>0.91979999999999995</v>
+      </c>
       <c r="J56" s="13"/>
-      <c r="K56" s="13"/>
-      <c r="O56" s="18"/>
-      <c r="P56" s="18"/>
-      <c r="Q56" s="18"/>
-      <c r="U56" s="18"/>
-      <c r="V56" s="18"/>
+      <c r="K56" s="15">
+        <v>0.92700000000000005</v>
+      </c>
+      <c r="L56">
+        <v>353</v>
+      </c>
+      <c r="N56" s="4">
+        <v>400</v>
+      </c>
+      <c r="O56" s="18">
+        <v>0.98640000000000005</v>
+      </c>
+      <c r="P56" s="18">
+        <v>0.91930000000000001</v>
+      </c>
+      <c r="Q56" s="18">
+        <f>O56-I56</f>
+        <v>6.6600000000000104E-2</v>
+      </c>
+      <c r="S56">
+        <v>64</v>
+      </c>
+      <c r="T56" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="U56" s="17">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="V56" s="18">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="W56" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="X56" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="Y56" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="AA56" s="4" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="57" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="C57" s="13"/>
-      <c r="D57" s="13"/>
-      <c r="E57" s="13"/>
-      <c r="F57" s="13"/>
-      <c r="G57" s="13"/>
-      <c r="H57" s="13"/>
-      <c r="I57" s="13"/>
+      <c r="A57" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C57" s="16">
+        <v>0.88719999999999999</v>
+      </c>
+      <c r="D57" s="15">
+        <v>0.89659999999999995</v>
+      </c>
+      <c r="E57" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="F57" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="G57" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="H57" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="I57" s="43" t="s">
+        <v>20</v>
+      </c>
       <c r="J57" s="13"/>
-      <c r="K57" s="13"/>
-      <c r="O57" s="18"/>
-      <c r="P57" s="18"/>
-      <c r="Q57" s="18"/>
-      <c r="U57" s="18"/>
-      <c r="V57" s="18"/>
+      <c r="K57" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="L57" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="N57" s="4">
+        <v>200</v>
+      </c>
+      <c r="O57" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="P57" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q57" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="S57">
+        <v>64</v>
+      </c>
+      <c r="T57" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="U57" s="17">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="V57" s="18">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="W57" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="X57" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="Y57" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="AA57" s="4" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="58" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="C58" s="13"/>
-      <c r="D58" s="13"/>
-      <c r="E58" s="13"/>
-      <c r="F58" s="13"/>
-      <c r="G58" s="13"/>
-      <c r="I58" s="13"/>
+      <c r="A58" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C58" s="14">
+        <v>0.88870000000000005</v>
+      </c>
+      <c r="D58" s="14">
+        <v>0.90810000000000002</v>
+      </c>
+      <c r="E58" s="14">
+        <v>0.91590000000000005</v>
+      </c>
+      <c r="F58" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="G58" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="H58" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="I58" s="43" t="s">
+        <v>20</v>
+      </c>
       <c r="J58" s="13"/>
-      <c r="K58" s="13"/>
-      <c r="O58" s="13"/>
-      <c r="P58" s="18"/>
-      <c r="Q58" s="18"/>
-      <c r="U58" s="18"/>
-      <c r="V58" s="18"/>
+      <c r="K58" s="13">
+        <v>0.9264</v>
+      </c>
+      <c r="L58">
+        <v>183</v>
+      </c>
+      <c r="N58" s="4">
+        <v>200</v>
+      </c>
+      <c r="O58" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="P58" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q58" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="S58">
+        <v>64</v>
+      </c>
+      <c r="T58" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="U58" s="17">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="V58" s="18">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="W58" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="X58" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="Y58" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="AA58" s="4" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="59" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="C59" s="13"/>
-      <c r="D59" s="13"/>
-      <c r="E59" s="13"/>
-      <c r="F59" s="13"/>
-      <c r="G59" s="13"/>
-      <c r="H59" s="13"/>
-      <c r="I59" s="13"/>
+      <c r="A59" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C59" s="20">
+        <v>0.88390000000000002</v>
+      </c>
+      <c r="D59" s="13">
+        <v>0.90159999999999996</v>
+      </c>
+      <c r="E59" s="20">
+        <v>0.91220000000000001</v>
+      </c>
+      <c r="F59" s="20">
+        <v>0.91539999999999999</v>
+      </c>
+      <c r="G59" s="20">
+        <v>0.91820000000000002</v>
+      </c>
+      <c r="H59" s="14">
+        <v>0.92379999999999995</v>
+      </c>
+      <c r="I59" s="20">
+        <v>0.92220000000000002</v>
+      </c>
       <c r="J59" s="13"/>
-      <c r="K59" s="13"/>
-      <c r="O59" s="18"/>
-      <c r="P59" s="18"/>
-      <c r="Q59" s="18"/>
-      <c r="U59" s="18"/>
-      <c r="V59" s="18"/>
+      <c r="K59" s="13">
+        <v>0.92620000000000002</v>
+      </c>
+      <c r="L59">
+        <v>303</v>
+      </c>
+      <c r="N59" s="4">
+        <v>250</v>
+      </c>
+      <c r="O59" s="18">
+        <v>0.98780000000000001</v>
+      </c>
+      <c r="P59" s="46">
+        <v>0.91959999999999997</v>
+      </c>
+      <c r="Q59" s="18">
+        <f>O59-I59</f>
+        <v>6.5599999999999992E-2</v>
+      </c>
+      <c r="S59">
+        <v>64</v>
+      </c>
+      <c r="T59" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="U59" s="17">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="V59" s="18">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="W59" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="X59" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="Y59" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="AA59" s="4" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="60" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="C60" s="13"/>
-      <c r="D60" s="13"/>
-      <c r="E60" s="13"/>
-      <c r="F60" s="13"/>
-      <c r="G60" s="13"/>
+      <c r="A60" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C60" s="13">
+        <v>0.88290000000000002</v>
+      </c>
+      <c r="D60" s="15">
+        <v>0.89890000000000003</v>
+      </c>
+      <c r="E60" s="15">
+        <v>0.90839999999999999</v>
+      </c>
+      <c r="F60" s="13">
+        <v>0.91220000000000001</v>
+      </c>
+      <c r="G60" s="13">
+        <v>0.91600000000000004</v>
+      </c>
       <c r="H60" s="13"/>
       <c r="I60" s="13"/>
       <c r="J60" s="13"/>
-      <c r="K60" s="13"/>
-      <c r="U60" s="18"/>
-      <c r="V60" s="18"/>
+      <c r="K60" s="13">
+        <v>0.91959999999999997</v>
+      </c>
+      <c r="L60">
+        <v>247</v>
+      </c>
+      <c r="N60" s="4">
+        <v>250</v>
+      </c>
+      <c r="O60" s="18">
+        <v>0.97219999999999995</v>
+      </c>
+      <c r="P60" s="4">
+        <v>0.91410000000000002</v>
+      </c>
+      <c r="Q60" s="18">
+        <f>O60-I60</f>
+        <v>0.97219999999999995</v>
+      </c>
+      <c r="S60">
+        <v>64</v>
+      </c>
+      <c r="T60" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="U60" s="17">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="V60" s="18">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="W60" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="X60" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="Y60" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="AA60" s="4" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="61" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="C61" s="13"/>
-      <c r="D61" s="13"/>
-      <c r="E61" s="13"/>
-      <c r="F61" s="13"/>
-      <c r="G61" s="13"/>
-      <c r="H61" s="13"/>
-      <c r="I61" s="13"/>
+      <c r="A61" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C61" s="13">
+        <v>0.87780000000000002</v>
+      </c>
+      <c r="D61" s="15">
+        <v>0.89929999999999999</v>
+      </c>
+      <c r="E61" s="13">
+        <v>0.90459999999999996</v>
+      </c>
+      <c r="F61" s="13">
+        <v>0.91439999999999999</v>
+      </c>
+      <c r="G61" s="13">
+        <v>0.91579999999999995</v>
+      </c>
+      <c r="H61" s="13">
+        <v>0.91710000000000003</v>
+      </c>
+      <c r="I61" s="13">
+        <v>0.92210000000000003</v>
+      </c>
       <c r="J61" s="13"/>
-      <c r="K61" s="13"/>
-      <c r="U61" s="18"/>
-      <c r="V61" s="18"/>
+      <c r="K61" s="13">
+        <v>0.92910000000000004</v>
+      </c>
+      <c r="L61">
+        <v>436</v>
+      </c>
+      <c r="N61" s="4">
+        <v>450</v>
+      </c>
+      <c r="O61" s="18">
+        <v>0.9899</v>
+      </c>
+      <c r="P61" s="53">
+        <v>0.92079999999999995</v>
+      </c>
+      <c r="Q61" s="18">
+        <f>O61-I61</f>
+        <v>6.7799999999999971E-2</v>
+      </c>
+      <c r="S61">
+        <v>64</v>
+      </c>
+      <c r="T61" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="U61" s="17">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="V61" s="18">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="W61" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="X61" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="Y61" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="AA61" s="4" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="62" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="C62" s="13"/>
-      <c r="D62" s="13"/>
-      <c r="E62" s="13"/>
-      <c r="F62" s="13"/>
-      <c r="G62" s="13"/>
-      <c r="H62" s="13"/>
-      <c r="I62" s="13"/>
+      <c r="A62" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C62" s="13">
+        <v>0.86019999999999996</v>
+      </c>
+      <c r="D62" s="13">
+        <v>0.89480000000000004</v>
+      </c>
+      <c r="E62" s="13">
+        <v>0.90110000000000001</v>
+      </c>
+      <c r="F62" s="13">
+        <v>0.91249999999999998</v>
+      </c>
+      <c r="G62" s="13">
+        <v>0.9163</v>
+      </c>
+      <c r="H62" s="13">
+        <v>0.9173</v>
+      </c>
+      <c r="I62" s="15">
+        <v>0.92179999999999995</v>
+      </c>
       <c r="J62" s="13"/>
-      <c r="K62" s="13"/>
-      <c r="U62" s="18"/>
-      <c r="V62" s="18"/>
+      <c r="K62" s="16">
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="L62">
+        <v>338</v>
+      </c>
+      <c r="N62" s="4">
+        <v>250</v>
+      </c>
+      <c r="O62" s="18">
+        <v>0.98089999999999999</v>
+      </c>
+      <c r="P62">
+        <v>0.91710000000000003</v>
+      </c>
+      <c r="Q62" s="18">
+        <f>O62-I62</f>
+        <v>5.9100000000000041E-2</v>
+      </c>
+      <c r="S62">
+        <v>64</v>
+      </c>
+      <c r="T62" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="U62" s="17">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="V62" s="18">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="W62" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="X62" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="Y62" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="AA62" s="4" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="63" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="C63" s="13"/>
-      <c r="D63" s="13"/>
-      <c r="E63" s="13"/>
-      <c r="F63" s="13"/>
-      <c r="G63" s="13"/>
-      <c r="H63" s="13"/>
-      <c r="I63" s="13"/>
+      <c r="A63" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C63" s="13">
+        <v>0.87219999999999998</v>
+      </c>
+      <c r="D63" s="13">
+        <v>0.89300000000000002</v>
+      </c>
+      <c r="E63" s="13">
+        <v>0.90280000000000005</v>
+      </c>
+      <c r="F63" s="13">
+        <v>0.91349999999999998</v>
+      </c>
+      <c r="G63" s="13">
+        <v>0.91400000000000003</v>
+      </c>
+      <c r="H63" s="13">
+        <v>0.9163</v>
+      </c>
+      <c r="I63" s="16">
+        <v>0.92379999999999995</v>
+      </c>
       <c r="J63" s="13"/>
-      <c r="K63" s="13"/>
+      <c r="K63" s="20">
+        <v>0.92759999999999998</v>
+      </c>
+      <c r="L63">
+        <v>346</v>
+      </c>
+      <c r="N63" s="4">
+        <v>250</v>
+      </c>
+      <c r="O63" s="18">
+        <v>0.97689999999999999</v>
+      </c>
+      <c r="P63" s="4">
+        <v>0.91810000000000003</v>
+      </c>
+      <c r="Q63" s="18">
+        <f>O63-I63</f>
+        <v>5.3100000000000036E-2</v>
+      </c>
+      <c r="S63">
+        <v>64</v>
+      </c>
+      <c r="T63" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="U63" s="17">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="V63" s="18">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="W63" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="X63" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="Y63" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="AA63" s="4" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="64" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="C64" s="13"/>
-      <c r="D64" s="13"/>
-      <c r="E64" s="13"/>
-      <c r="F64" s="13"/>
-      <c r="G64" s="13"/>
-      <c r="H64" s="13"/>
-      <c r="I64" s="13"/>
-      <c r="J64" s="13"/>
-      <c r="K64" s="13"/>
+      <c r="A64" s="38" t="s">
+        <v>158</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C64" s="13">
+        <v>0.87770000000000004</v>
+      </c>
+      <c r="D64" s="20">
+        <v>0.89980000000000004</v>
+      </c>
+      <c r="E64" s="14">
+        <v>0.91510000000000002</v>
+      </c>
+      <c r="F64" s="14">
+        <v>0.91859999999999997</v>
+      </c>
+      <c r="G64" s="14">
+        <v>0.91900000000000004</v>
+      </c>
+      <c r="H64" s="13">
+        <v>0.92179999999999995</v>
+      </c>
+      <c r="I64" s="14">
+        <v>0.92430000000000001</v>
+      </c>
+      <c r="J64" s="14"/>
+      <c r="K64" s="14">
+        <v>0.93130000000000002</v>
+      </c>
+      <c r="L64">
+        <v>377</v>
+      </c>
+      <c r="N64" s="4">
+        <v>250</v>
+      </c>
+      <c r="O64" s="18">
+        <v>0.98660000000000003</v>
+      </c>
+      <c r="P64" s="39">
+        <v>0.92220000000000002</v>
+      </c>
+      <c r="Q64" s="18">
+        <f>O64-I64</f>
+        <v>6.2300000000000022E-2</v>
+      </c>
+      <c r="S64">
+        <v>64</v>
+      </c>
+      <c r="T64" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="U64" s="17">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="V64" s="18">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="W64" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="X64" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="Y64" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="AA64" s="4" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="65" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C65" s="13"/>
@@ -5386,17 +6075,6 @@
       <c r="I112" s="13"/>
       <c r="J112" s="13"/>
       <c r="K112" s="13"/>
-    </row>
-    <row r="113" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C113" s="13"/>
-      <c r="D113" s="13"/>
-      <c r="E113" s="13"/>
-      <c r="F113" s="13"/>
-      <c r="G113" s="13"/>
-      <c r="H113" s="13"/>
-      <c r="I113" s="13"/>
-      <c r="J113" s="13"/>
-      <c r="K113" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5410,7 +6088,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
+      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5692,28 +6370,88 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B21" s="13"/>
-      <c r="D21" s="8"/>
+      <c r="A21" t="s">
+        <v>139</v>
+      </c>
+      <c r="B21" s="13">
+        <v>1E-3</v>
+      </c>
+      <c r="C21">
+        <v>25</v>
+      </c>
+      <c r="D21" s="8">
+        <v>0.85</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B22" s="13"/>
-      <c r="D22" s="8"/>
+      <c r="A22" t="s">
+        <v>141</v>
+      </c>
+      <c r="B22" s="13">
+        <v>1E-3</v>
+      </c>
+      <c r="C22">
+        <v>25</v>
+      </c>
+      <c r="D22" s="8">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B23" s="13"/>
-      <c r="D23" s="8"/>
+      <c r="A23" t="s">
+        <v>143</v>
+      </c>
+      <c r="B23" s="13">
+        <v>2E-3</v>
+      </c>
+      <c r="C23">
+        <v>5</v>
+      </c>
+      <c r="D23" s="8">
+        <v>0.95</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B24" s="13"/>
-      <c r="D24" s="8"/>
+      <c r="A24" t="s">
+        <v>152</v>
+      </c>
+      <c r="B24" s="13">
+        <v>2E-3</v>
+      </c>
+      <c r="C24">
+        <v>10</v>
+      </c>
+      <c r="D24" s="8">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B25" s="31"/>
-      <c r="D25" s="8"/>
+      <c r="A25" t="s">
+        <v>155</v>
+      </c>
+      <c r="B25" s="31">
+        <v>2E-3</v>
+      </c>
+      <c r="C25">
+        <v>15</v>
+      </c>
+      <c r="D25" s="8">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B26" s="31"/>
-      <c r="D26" s="8"/>
+      <c r="A26" t="s">
+        <v>157</v>
+      </c>
+      <c r="B26" s="31">
+        <v>2E-3</v>
+      </c>
+      <c r="C26">
+        <v>15</v>
+      </c>
+      <c r="D26" s="8">
+        <v>0.85</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B27" s="31"/>
@@ -5736,10 +6474,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G113"/>
+  <dimension ref="A1:G161"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="G111" sqref="G111"/>
+    <sheetView topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="C155" sqref="C155:C161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -7826,6 +8564,888 @@
         <v>5.0063110099864919E-5</v>
       </c>
     </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A115" t="s">
+        <v>139</v>
+      </c>
+      <c r="B115">
+        <v>1E-3</v>
+      </c>
+      <c r="C115" s="31">
+        <v>0.85</v>
+      </c>
+      <c r="D115">
+        <v>25</v>
+      </c>
+      <c r="F115">
+        <v>50</v>
+      </c>
+      <c r="G115">
+        <f t="shared" ref="G115:G120" si="15">B115*(C115^(F115/D115))</f>
+        <v>7.2249999999999994E-4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A116" t="s">
+        <v>139</v>
+      </c>
+      <c r="B116">
+        <v>1E-3</v>
+      </c>
+      <c r="C116" s="31">
+        <v>0.85</v>
+      </c>
+      <c r="D116">
+        <v>25</v>
+      </c>
+      <c r="F116">
+        <v>100</v>
+      </c>
+      <c r="G116">
+        <f t="shared" si="15"/>
+        <v>5.2200624999999986E-4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A117" t="s">
+        <v>139</v>
+      </c>
+      <c r="B117">
+        <v>1E-3</v>
+      </c>
+      <c r="C117" s="31">
+        <v>0.85</v>
+      </c>
+      <c r="D117">
+        <v>25</v>
+      </c>
+      <c r="F117">
+        <v>150</v>
+      </c>
+      <c r="G117">
+        <f t="shared" si="15"/>
+        <v>3.7714951562499991E-4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A118" t="s">
+        <v>139</v>
+      </c>
+      <c r="B118">
+        <v>1E-3</v>
+      </c>
+      <c r="C118" s="31">
+        <v>0.85</v>
+      </c>
+      <c r="D118">
+        <v>25</v>
+      </c>
+      <c r="F118">
+        <v>200</v>
+      </c>
+      <c r="G118">
+        <f t="shared" si="15"/>
+        <v>2.7249052503906243E-4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A119" t="s">
+        <v>139</v>
+      </c>
+      <c r="B119">
+        <v>1E-3</v>
+      </c>
+      <c r="C119" s="31">
+        <v>0.85</v>
+      </c>
+      <c r="D119">
+        <v>25</v>
+      </c>
+      <c r="F119">
+        <v>250</v>
+      </c>
+      <c r="G119">
+        <f t="shared" si="15"/>
+        <v>1.9687440434072256E-4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A120" t="s">
+        <v>139</v>
+      </c>
+      <c r="B120">
+        <v>1E-3</v>
+      </c>
+      <c r="C120" s="31">
+        <v>0.85</v>
+      </c>
+      <c r="D120">
+        <v>25</v>
+      </c>
+      <c r="F120">
+        <v>300</v>
+      </c>
+      <c r="G120">
+        <f t="shared" si="15"/>
+        <v>1.4224175713617205E-4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A121" t="s">
+        <v>139</v>
+      </c>
+      <c r="B121">
+        <v>1E-3</v>
+      </c>
+      <c r="C121" s="31">
+        <v>0.85</v>
+      </c>
+      <c r="D121">
+        <v>25</v>
+      </c>
+      <c r="F121">
+        <v>350</v>
+      </c>
+      <c r="G121">
+        <f>B121*(C121^(F121/D121))</f>
+        <v>1.0276966953088428E-4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A123" t="s">
+        <v>141</v>
+      </c>
+      <c r="B123">
+        <v>1E-3</v>
+      </c>
+      <c r="C123" s="31">
+        <v>0.8</v>
+      </c>
+      <c r="D123">
+        <v>25</v>
+      </c>
+      <c r="F123">
+        <v>50</v>
+      </c>
+      <c r="G123">
+        <f t="shared" ref="G123:G128" si="16">B123*(C123^(F123/D123))</f>
+        <v>6.4000000000000016E-4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A124" t="s">
+        <v>141</v>
+      </c>
+      <c r="B124">
+        <v>1E-3</v>
+      </c>
+      <c r="C124" s="31">
+        <v>0.8</v>
+      </c>
+      <c r="D124">
+        <v>25</v>
+      </c>
+      <c r="F124">
+        <v>100</v>
+      </c>
+      <c r="G124">
+        <f t="shared" si="16"/>
+        <v>4.096000000000002E-4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A125" t="s">
+        <v>141</v>
+      </c>
+      <c r="B125">
+        <v>1E-3</v>
+      </c>
+      <c r="C125" s="31">
+        <v>0.8</v>
+      </c>
+      <c r="D125">
+        <v>25</v>
+      </c>
+      <c r="F125">
+        <v>150</v>
+      </c>
+      <c r="G125">
+        <f t="shared" si="16"/>
+        <v>2.6214400000000018E-4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A126" t="s">
+        <v>141</v>
+      </c>
+      <c r="B126">
+        <v>1E-3</v>
+      </c>
+      <c r="C126" s="31">
+        <v>0.8</v>
+      </c>
+      <c r="D126">
+        <v>25</v>
+      </c>
+      <c r="F126">
+        <v>200</v>
+      </c>
+      <c r="G126">
+        <f t="shared" si="16"/>
+        <v>1.6777216000000015E-4</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A127" t="s">
+        <v>141</v>
+      </c>
+      <c r="B127">
+        <v>1E-3</v>
+      </c>
+      <c r="C127" s="31">
+        <v>0.8</v>
+      </c>
+      <c r="D127">
+        <v>25</v>
+      </c>
+      <c r="F127">
+        <v>250</v>
+      </c>
+      <c r="G127">
+        <f t="shared" si="16"/>
+        <v>1.0737418240000011E-4</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A128" t="s">
+        <v>141</v>
+      </c>
+      <c r="B128">
+        <v>1E-3</v>
+      </c>
+      <c r="C128" s="31">
+        <v>0.8</v>
+      </c>
+      <c r="D128">
+        <v>25</v>
+      </c>
+      <c r="F128">
+        <v>300</v>
+      </c>
+      <c r="G128">
+        <f t="shared" si="16"/>
+        <v>6.87194767360001E-5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A129" t="s">
+        <v>141</v>
+      </c>
+      <c r="B129">
+        <v>1E-3</v>
+      </c>
+      <c r="C129" s="31">
+        <v>0.8</v>
+      </c>
+      <c r="D129">
+        <v>25</v>
+      </c>
+      <c r="F129">
+        <v>350</v>
+      </c>
+      <c r="G129">
+        <f>B129*(C129^(F129/D129))</f>
+        <v>4.3980465111040064E-5</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A131" t="s">
+        <v>143</v>
+      </c>
+      <c r="B131">
+        <v>2E-3</v>
+      </c>
+      <c r="C131" s="31">
+        <v>0.95</v>
+      </c>
+      <c r="D131">
+        <v>5</v>
+      </c>
+      <c r="F131">
+        <v>50</v>
+      </c>
+      <c r="G131">
+        <f t="shared" ref="G131:G136" si="17">B131*(C131^(F131/D131))</f>
+        <v>1.1974738784767578E-3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A132" t="s">
+        <v>143</v>
+      </c>
+      <c r="B132">
+        <v>2E-3</v>
+      </c>
+      <c r="C132" s="31">
+        <v>0.95</v>
+      </c>
+      <c r="D132">
+        <v>5</v>
+      </c>
+      <c r="F132">
+        <v>100</v>
+      </c>
+      <c r="G132">
+        <f t="shared" si="17"/>
+        <v>7.1697184481708429E-4</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A133" t="s">
+        <v>143</v>
+      </c>
+      <c r="B133">
+        <v>2E-3</v>
+      </c>
+      <c r="C133" s="31">
+        <v>0.95</v>
+      </c>
+      <c r="D133">
+        <v>5</v>
+      </c>
+      <c r="F133">
+        <v>150</v>
+      </c>
+      <c r="G133">
+        <f t="shared" si="17"/>
+        <v>4.2927752788587498E-4</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A134" t="s">
+        <v>143</v>
+      </c>
+      <c r="B134">
+        <v>2E-3</v>
+      </c>
+      <c r="C134" s="31">
+        <v>0.95</v>
+      </c>
+      <c r="D134">
+        <v>5</v>
+      </c>
+      <c r="F134">
+        <v>200</v>
+      </c>
+      <c r="G134">
+        <f t="shared" si="17"/>
+        <v>2.5702431313020667E-4</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A135" t="s">
+        <v>143</v>
+      </c>
+      <c r="B135">
+        <v>2E-3</v>
+      </c>
+      <c r="C135" s="31">
+        <v>0.95</v>
+      </c>
+      <c r="D135">
+        <v>5</v>
+      </c>
+      <c r="F135">
+        <v>250</v>
+      </c>
+      <c r="G135">
+        <f t="shared" si="17"/>
+        <v>1.5388995055342662E-4</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A136" t="s">
+        <v>143</v>
+      </c>
+      <c r="B136">
+        <v>2E-3</v>
+      </c>
+      <c r="C136" s="31">
+        <v>0.95</v>
+      </c>
+      <c r="D136">
+        <v>5</v>
+      </c>
+      <c r="F136">
+        <v>300</v>
+      </c>
+      <c r="G136">
+        <f t="shared" si="17"/>
+        <v>9.2139597973904096E-5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A137" t="s">
+        <v>143</v>
+      </c>
+      <c r="B137">
+        <v>2E-3</v>
+      </c>
+      <c r="C137" s="31">
+        <v>0.95</v>
+      </c>
+      <c r="D137">
+        <v>5</v>
+      </c>
+      <c r="F137">
+        <v>350</v>
+      </c>
+      <c r="G137">
+        <f>B137*(C137^(F137/D137))</f>
+        <v>5.5167380873550074E-5</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A139" t="s">
+        <v>152</v>
+      </c>
+      <c r="B139">
+        <v>2E-3</v>
+      </c>
+      <c r="C139">
+        <v>0.9</v>
+      </c>
+      <c r="D139">
+        <v>10</v>
+      </c>
+      <c r="F139">
+        <v>50</v>
+      </c>
+      <c r="G139">
+        <f t="shared" ref="G139:G144" si="18">B139*(C139^(F139/D139))</f>
+        <v>1.1809800000000003E-3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A140" t="s">
+        <v>152</v>
+      </c>
+      <c r="B140">
+        <v>2E-3</v>
+      </c>
+      <c r="C140">
+        <v>0.9</v>
+      </c>
+      <c r="D140">
+        <v>10</v>
+      </c>
+      <c r="F140">
+        <v>100</v>
+      </c>
+      <c r="G140">
+        <f t="shared" si="18"/>
+        <v>6.9735688020000034E-4</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A141" t="s">
+        <v>152</v>
+      </c>
+      <c r="B141">
+        <v>2E-3</v>
+      </c>
+      <c r="C141">
+        <v>0.9</v>
+      </c>
+      <c r="D141">
+        <v>10</v>
+      </c>
+      <c r="F141">
+        <v>150</v>
+      </c>
+      <c r="G141">
+        <f t="shared" si="18"/>
+        <v>4.1178226418929828E-4</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A142" t="s">
+        <v>152</v>
+      </c>
+      <c r="B142">
+        <v>2E-3</v>
+      </c>
+      <c r="C142">
+        <v>0.9</v>
+      </c>
+      <c r="D142">
+        <v>10</v>
+      </c>
+      <c r="F142">
+        <v>200</v>
+      </c>
+      <c r="G142">
+        <f t="shared" si="18"/>
+        <v>2.431533091811388E-4</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A143" t="s">
+        <v>152</v>
+      </c>
+      <c r="B143">
+        <v>2E-3</v>
+      </c>
+      <c r="C143">
+        <v>0.9</v>
+      </c>
+      <c r="D143">
+        <v>10</v>
+      </c>
+      <c r="F143">
+        <v>250</v>
+      </c>
+      <c r="G143">
+        <f t="shared" si="18"/>
+        <v>1.4357959753837069E-4</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A144" t="s">
+        <v>152</v>
+      </c>
+      <c r="B144">
+        <v>2E-3</v>
+      </c>
+      <c r="C144">
+        <v>0.9</v>
+      </c>
+      <c r="D144">
+        <v>10</v>
+      </c>
+      <c r="F144">
+        <v>300</v>
+      </c>
+      <c r="G144">
+        <f t="shared" si="18"/>
+        <v>8.478231655043253E-5</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A145" t="s">
+        <v>152</v>
+      </c>
+      <c r="B145">
+        <v>2E-3</v>
+      </c>
+      <c r="C145">
+        <v>0.9</v>
+      </c>
+      <c r="D145">
+        <v>10</v>
+      </c>
+      <c r="F145">
+        <v>350</v>
+      </c>
+      <c r="G145">
+        <f t="shared" ref="G145" si="19">B145*(C145^(F145/D145))</f>
+        <v>5.0063110099864919E-5</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A147" t="s">
+        <v>155</v>
+      </c>
+      <c r="B147">
+        <v>2E-3</v>
+      </c>
+      <c r="C147">
+        <v>0.9</v>
+      </c>
+      <c r="D147">
+        <v>15</v>
+      </c>
+      <c r="F147">
+        <v>50</v>
+      </c>
+      <c r="G147">
+        <f t="shared" ref="G147:G153" si="20">B147*(C147^(F147/D147))</f>
+        <v>1.4076835227550082E-3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A148" t="s">
+        <v>155</v>
+      </c>
+      <c r="B148">
+        <v>2E-3</v>
+      </c>
+      <c r="C148">
+        <v>0.9</v>
+      </c>
+      <c r="D148">
+        <v>15</v>
+      </c>
+      <c r="F148">
+        <v>100</v>
+      </c>
+      <c r="G148">
+        <f t="shared" si="20"/>
+        <v>9.907864501179748E-4</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A149" t="s">
+        <v>155</v>
+      </c>
+      <c r="B149">
+        <v>2E-3</v>
+      </c>
+      <c r="C149">
+        <v>0.9</v>
+      </c>
+      <c r="D149">
+        <v>15</v>
+      </c>
+      <c r="F149">
+        <v>150</v>
+      </c>
+      <c r="G149">
+        <f t="shared" si="20"/>
+        <v>6.9735688020000034E-4</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A150" t="s">
+        <v>155</v>
+      </c>
+      <c r="B150">
+        <v>2E-3</v>
+      </c>
+      <c r="C150">
+        <v>0.9</v>
+      </c>
+      <c r="D150">
+        <v>15</v>
+      </c>
+      <c r="F150">
+        <v>200</v>
+      </c>
+      <c r="G150">
+        <f t="shared" si="20"/>
+        <v>4.9082889486868925E-4</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A151" t="s">
+        <v>155</v>
+      </c>
+      <c r="B151">
+        <v>2E-3</v>
+      </c>
+      <c r="C151">
+        <v>0.9</v>
+      </c>
+      <c r="D151">
+        <v>15</v>
+      </c>
+      <c r="F151">
+        <v>250</v>
+      </c>
+      <c r="G151">
+        <f t="shared" si="20"/>
+        <v>3.4546587389935196E-4</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A152" t="s">
+        <v>155</v>
+      </c>
+      <c r="B152">
+        <v>2E-3</v>
+      </c>
+      <c r="C152">
+        <v>0.9</v>
+      </c>
+      <c r="D152">
+        <v>15</v>
+      </c>
+      <c r="F152">
+        <v>300</v>
+      </c>
+      <c r="G152">
+        <f t="shared" si="20"/>
+        <v>2.431533091811388E-4</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A153" t="s">
+        <v>155</v>
+      </c>
+      <c r="B153">
+        <v>2E-3</v>
+      </c>
+      <c r="C153">
+        <v>0.9</v>
+      </c>
+      <c r="D153">
+        <v>15</v>
+      </c>
+      <c r="F153">
+        <v>350</v>
+      </c>
+      <c r="G153">
+        <f t="shared" si="20"/>
+        <v>1.7114145341882154E-4</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A155" t="s">
+        <v>157</v>
+      </c>
+      <c r="B155">
+        <v>2E-3</v>
+      </c>
+      <c r="C155">
+        <v>0.85</v>
+      </c>
+      <c r="D155">
+        <v>15</v>
+      </c>
+      <c r="F155">
+        <v>50</v>
+      </c>
+      <c r="G155">
+        <f t="shared" ref="G155:G161" si="21">B155*(C155^(F155/D155))</f>
+        <v>1.1634822123235934E-3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A156" t="s">
+        <v>157</v>
+      </c>
+      <c r="B156">
+        <v>2E-3</v>
+      </c>
+      <c r="C156">
+        <v>0.85</v>
+      </c>
+      <c r="D156">
+        <v>15</v>
+      </c>
+      <c r="F156">
+        <v>100</v>
+      </c>
+      <c r="G156">
+        <f t="shared" si="21"/>
+        <v>6.7684542919670154E-4</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A157" t="s">
+        <v>157</v>
+      </c>
+      <c r="B157">
+        <v>2E-3</v>
+      </c>
+      <c r="C157">
+        <v>0.85</v>
+      </c>
+      <c r="D157">
+        <v>15</v>
+      </c>
+      <c r="F157">
+        <v>150</v>
+      </c>
+      <c r="G157">
+        <f t="shared" si="21"/>
+        <v>3.9374880868144513E-4</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A158" t="s">
+        <v>157</v>
+      </c>
+      <c r="B158">
+        <v>2E-3</v>
+      </c>
+      <c r="C158">
+        <v>0.85</v>
+      </c>
+      <c r="D158">
+        <v>15</v>
+      </c>
+      <c r="F158">
+        <v>200</v>
+      </c>
+      <c r="G158">
+        <f t="shared" si="21"/>
+        <v>2.2905986751223353E-4</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A159" t="s">
+        <v>157</v>
+      </c>
+      <c r="B159">
+        <v>2E-3</v>
+      </c>
+      <c r="C159">
+        <v>0.85</v>
+      </c>
+      <c r="D159">
+        <v>15</v>
+      </c>
+      <c r="F159">
+        <v>250</v>
+      </c>
+      <c r="G159">
+        <f t="shared" si="21"/>
+        <v>1.3325354070384133E-4</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A160" t="s">
+        <v>157</v>
+      </c>
+      <c r="B160">
+        <v>2E-3</v>
+      </c>
+      <c r="C160">
+        <v>0.85</v>
+      </c>
+      <c r="D160">
+        <v>15</v>
+      </c>
+      <c r="F160">
+        <v>300</v>
+      </c>
+      <c r="G160">
+        <f t="shared" si="21"/>
+        <v>7.7519062169028647E-5</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A161" t="s">
+        <v>157</v>
+      </c>
+      <c r="B161">
+        <v>2E-3</v>
+      </c>
+      <c r="C161">
+        <v>0.85</v>
+      </c>
+      <c r="D161">
+        <v>15</v>
+      </c>
+      <c r="F161">
+        <v>350</v>
+      </c>
+      <c r="G161">
+        <f t="shared" si="21"/>
+        <v>4.5096024974835828E-5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
